--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>SCRUMMASTER</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Karena lupa screenshot terpaksa saya pindah lagi ke awal-awal</t>
+  </si>
+  <si>
+    <t>dari Jimmy Yappeter ( 13.111.0461 )</t>
+  </si>
+  <si>
+    <t>tgl 05 Juni 2015</t>
   </si>
 </sst>
 </file>
@@ -108,10 +114,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -156,6 +162,49 @@
         <a:xfrm>
           <a:off x="619126" y="613684"/>
           <a:ext cx="7985669" cy="4761138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SS.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="571501"/>
+          <a:ext cx="6953250" cy="3688024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,58 +513,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -559,14 +608,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Awal" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>SCRUMMASTER</t>
   </si>
@@ -49,18 +50,6 @@
   </si>
   <si>
     <t>Frenky Salim</t>
-  </si>
-  <si>
-    <t>Awal mulai backlog</t>
-  </si>
-  <si>
-    <t>Karena lupa screenshot terpaksa saya pindah lagi ke awal-awal</t>
-  </si>
-  <si>
-    <t>dari Jimmy Yappeter ( 13.111.0461 )</t>
-  </si>
-  <si>
-    <t>tgl 05 Juni 2015</t>
   </si>
 </sst>
 </file>
@@ -136,14 +125,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6805</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42184</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>32295</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -160,7 +149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="613684"/>
+          <a:off x="619126" y="191862"/>
           <a:ext cx="7985669" cy="4761138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -179,14 +168,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68525</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -203,12 +192,64 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619126" y="571501"/>
+          <a:off x="619126" y="219076"/>
           <a:ext cx="6953250" cy="3688024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="590550"/>
+          <a:ext cx="6705600" cy="3770994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -582,25 +623,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -608,23 +638,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Awal" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sprint 4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -238,6 +240,110 @@
         <a:xfrm>
           <a:off x="638175" y="590550"/>
           <a:ext cx="6705600" cy="3770994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="623453" y="173182"/>
+          <a:ext cx="6771409" cy="3828461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296141</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="692727" y="207818"/>
+          <a:ext cx="12938414" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,7 +761,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19815" windowHeight="7665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="1" r:id="rId1"/>
     <sheet name="Awal" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -142,7 +143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -185,7 +186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -228,7 +229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -250,6 +251,51 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9334500" cy="5002722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -641,7 +687,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -655,7 +701,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
